--- a/Parts/Part List.xlsx
+++ b/Parts/Part List.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part List Complete" sheetId="3" r:id="rId1"/>
+    <sheet name="Purchase History for Print" sheetId="4" r:id="rId2"/>
+    <sheet name="Part List for Print" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="212">
   <si>
     <t>Spec</t>
   </si>
@@ -602,65 +605,64 @@
     <t>https://www.mcmaster.com/#8560k275/=1cyln3f</t>
   </si>
   <si>
+    <t>Order4 Amount</t>
+  </si>
+  <si>
+    <t>1ft</t>
+  </si>
+  <si>
+    <t>Delrin</t>
+  </si>
+  <si>
+    <t>6'' * 6'' * 1/4''</t>
+  </si>
+  <si>
+    <t>Thumb Screw</t>
+  </si>
+  <si>
+    <t>1/4-20 1/2''</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>X2 cut to 34'', X2 use for cutting shorter ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount for Final Desgin </t>
+  </si>
+  <si>
+    <t>Al Rod</t>
+  </si>
+  <si>
+    <t>1 1/4'' OD 1'' length</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#1610t12/=1d2s65q</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#8573k121/=1d2s6lb</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/#94567a510/=1d2s6uf</t>
+  </si>
+  <si>
+    <t>No longer required in final design</t>
+  </si>
+  <si>
+    <t>X2 cut from previous foamcutter</t>
+  </si>
+  <si>
+    <t>X4 cut from previous foamcutter</t>
+  </si>
+  <si>
+    <t>X8 from previous foamcutter</t>
+  </si>
+  <si>
+    <t>X4 from previous foamcutter</t>
+  </si>
+  <si>
     <t>Order3 Amount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order4 Amount</t>
-  </si>
-  <si>
-    <t>1ft</t>
-  </si>
-  <si>
-    <t>Delrin</t>
-  </si>
-  <si>
-    <t>6'' * 6'' * 1/4''</t>
-  </si>
-  <si>
-    <t>Thumb Screw</t>
-  </si>
-  <si>
-    <t>1/4-20 1/2''</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>X2 cut to 34'', X2 use for cutting shorter ones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount for Final Desgin </t>
-  </si>
-  <si>
-    <t>Al Rod</t>
-  </si>
-  <si>
-    <t>1 1/4'' OD 1'' length</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#1610t12/=1d2s65q</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#8573k121/=1d2s6lb</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/#94567a510/=1d2s6uf</t>
-  </si>
-  <si>
-    <t>No longer required in final design</t>
-  </si>
-  <si>
-    <t>X2 cut from previous foamcutter</t>
-  </si>
-  <si>
-    <t>X4 cut from previous foamcutter</t>
-  </si>
-  <si>
-    <t>X8 from previous foamcutter</t>
-  </si>
-  <si>
-    <t>X4 from previous foamcutter</t>
   </si>
 </sst>
 </file>
@@ -716,7 +718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -776,12 +778,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,24 +863,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -838,9 +880,125 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,6 +1007,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,28 +1056,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,7 +1100,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1172,11 +1398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA72"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1188,12 +1417,13 @@
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.53125" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="4"/>
+    <col min="8" max="8" width="9.06640625" style="4"/>
     <col min="9" max="9" width="12.1328125" customWidth="1"/>
     <col min="10" max="10" width="37.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.53125" customWidth="1"/>
     <col min="13" max="13" width="12.53125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.53125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" customWidth="1"/>
     <col min="16" max="16" width="12.53125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.53125" customWidth="1"/>
     <col min="18" max="18" width="8.86328125" bestFit="1" customWidth="1"/>
@@ -1201,79 +1431,77 @@
     <col min="20" max="20" width="2.53125" customWidth="1"/>
     <col min="21" max="21" width="8.86328125" customWidth="1"/>
     <col min="22" max="22" width="12.46484375" customWidth="1"/>
-    <col min="23" max="23" width="2.53125" customWidth="1"/>
-    <col min="25" max="25" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="13" customFormat="1" ht="29.25" thickTop="1" thickBot="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:22" s="13" customFormat="1" ht="29.25" thickTop="1" thickBot="1">
+      <c r="A1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
+      <c r="I1" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="76"/>
+      <c r="L1" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="22">
-        <f xml:space="preserve"> SUM(M2:M74)</f>
+      <c r="M1" s="26">
+        <f xml:space="preserve"> SUM(M2:M73)</f>
         <v>1235.68</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="22">
-        <f xml:space="preserve"> SUM(P2:P74)</f>
+      <c r="P1" s="26">
+        <f xml:space="preserve"> SUM(P2:P73)</f>
         <v>1256.9199999999998</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1" s="26">
+        <f xml:space="preserve"> SUM(S2:S73)</f>
+        <v>148.63</v>
+      </c>
+      <c r="T1" s="79"/>
+      <c r="U1" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="22">
-        <f xml:space="preserve"> SUM(S2:S74)</f>
-        <v>148.63</v>
-      </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="V1" s="22">
-        <f xml:space="preserve"> SUM(V2:V74)</f>
+      <c r="V1" s="26">
+        <f xml:space="preserve"> SUM(V2:V73)</f>
         <v>53.699999999999996</v>
       </c>
-      <c r="W1" s="22"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A2" s="28" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A2" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1281,7 +1509,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="84" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="7">
@@ -1291,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="36"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="8">
         <v>4</v>
       </c>
@@ -1299,39 +1527,38 @@
         <f>H2*L2</f>
         <v>49.24</v>
       </c>
-      <c r="N2" s="35"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q2" s="35"/>
+      <c r="Q2" s="80"/>
       <c r="R2" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="35"/>
+      <c r="T2" s="80"/>
       <c r="U2" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V2" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W2" s="35"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="40"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="7">
         <v>10.57</v>
       </c>
@@ -1339,9 +1566,9 @@
         <v>10</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="36"/>
+        <v>199</v>
+      </c>
+      <c r="K3" s="77"/>
       <c r="L3" s="8">
         <v>9</v>
       </c>
@@ -1349,7 +1576,7 @@
         <f>H3*L3</f>
         <v>95.13</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="N3" s="80"/>
       <c r="O3" s="8">
         <v>1</v>
       </c>
@@ -1357,32 +1584,31 @@
         <f>H3*O3</f>
         <v>10.57</v>
       </c>
-      <c r="Q3" s="35"/>
+      <c r="Q3" s="80"/>
       <c r="R3" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="35"/>
+      <c r="T3" s="80"/>
       <c r="U3" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V3" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W3" s="35"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="40"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="38"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="7">
         <v>7.79</v>
       </c>
@@ -1390,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="36"/>
+      <c r="K4" s="77"/>
       <c r="L4" s="8">
         <v>5</v>
       </c>
@@ -1398,7 +1624,7 @@
         <f>H4*L4</f>
         <v>38.950000000000003</v>
       </c>
-      <c r="N4" s="35"/>
+      <c r="N4" s="80"/>
       <c r="O4" s="8">
         <v>1</v>
       </c>
@@ -1406,54 +1632,53 @@
         <f>H4*O4</f>
         <v>7.79</v>
       </c>
-      <c r="Q4" s="35"/>
+      <c r="Q4" s="80"/>
       <c r="R4" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T4" s="35"/>
+      <c r="T4" s="80"/>
       <c r="U4" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V4" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W4" s="35"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="17" t="s">
-        <v>194</v>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="7">
         <v>5.84</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="36"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N5" s="35"/>
+      <c r="N5" s="80"/>
       <c r="O5" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q5" s="35"/>
+      <c r="Q5" s="80"/>
       <c r="R5" s="8">
         <v>2</v>
       </c>
@@ -1461,17 +1686,16 @@
         <f>H5*R5</f>
         <v>11.68</v>
       </c>
-      <c r="T5" s="35"/>
+      <c r="T5" s="80"/>
       <c r="U5" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W5" s="35"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A6" s="28"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A6" s="72"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1489,7 +1713,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="36"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="8">
         <v>32</v>
       </c>
@@ -1497,7 +1721,7 @@
         <f t="shared" ref="M6:M12" si="0">H6*L6</f>
         <v>158.72</v>
       </c>
-      <c r="N6" s="35"/>
+      <c r="N6" s="80"/>
       <c r="O6" s="8">
         <v>6</v>
       </c>
@@ -1505,24 +1729,23 @@
         <f>H6*O6</f>
         <v>29.759999999999998</v>
       </c>
-      <c r="Q6" s="35"/>
+      <c r="Q6" s="80"/>
       <c r="R6" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T6" s="35"/>
+      <c r="T6" s="80"/>
       <c r="U6" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W6" s="35"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A7" s="28"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A7" s="72"/>
       <c r="B7" s="8" t="s">
         <v>89</v>
       </c>
@@ -1540,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="36"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="8">
         <v>8</v>
       </c>
@@ -1548,7 +1771,7 @@
         <f t="shared" si="0"/>
         <v>60.96</v>
       </c>
-      <c r="N7" s="35"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="8">
         <v>4</v>
       </c>
@@ -1556,7 +1779,7 @@
         <f>H7*O7</f>
         <v>30.48</v>
       </c>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="80"/>
       <c r="R7" s="8">
         <v>8</v>
       </c>
@@ -1564,17 +1787,16 @@
         <f>H7*R7</f>
         <v>60.96</v>
       </c>
-      <c r="T7" s="35"/>
+      <c r="T7" s="80"/>
       <c r="U7" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V7" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W7" s="35"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A8" s="28"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A8" s="72"/>
       <c r="B8" s="8" t="s">
         <v>91</v>
       </c>
@@ -1592,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="36"/>
+      <c r="K8" s="77"/>
       <c r="L8" s="8">
         <v>10</v>
       </c>
@@ -1600,21 +1822,21 @@
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
-      <c r="N8" s="35"/>
+      <c r="N8" s="80"/>
       <c r="O8" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q8" s="35"/>
+      <c r="Q8" s="80"/>
       <c r="R8" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S8" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T8" s="35"/>
+      <c r="T8" s="80"/>
       <c r="U8" s="8">
         <v>2</v>
       </c>
@@ -1622,10 +1844,9 @@
         <f>H8*U8</f>
         <v>15.9</v>
       </c>
-      <c r="W8" s="35"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A9" s="28"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A9" s="72"/>
       <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
@@ -1643,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="36"/>
+      <c r="K9" s="77"/>
       <c r="L9" s="8">
         <v>8</v>
       </c>
@@ -1651,31 +1872,30 @@
         <f t="shared" si="0"/>
         <v>78.88</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q9" s="35"/>
+      <c r="Q9" s="80"/>
       <c r="R9" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T9" s="35"/>
+      <c r="T9" s="80"/>
       <c r="U9" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V9" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W9" s="35"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A10" s="28"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A10" s="72"/>
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1697,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="36"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="8">
         <v>10</v>
       </c>
@@ -1705,31 +1925,30 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="80"/>
       <c r="R10" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T10" s="35"/>
+      <c r="T10" s="80"/>
       <c r="U10" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V10" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W10" s="35"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A11" s="28"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A11" s="72"/>
       <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1753,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="36"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="8">
         <v>10</v>
       </c>
@@ -1761,31 +1980,30 @@
         <f t="shared" si="0"/>
         <v>42.9</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q11" s="35"/>
+      <c r="Q11" s="80"/>
       <c r="R11" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T11" s="35"/>
+      <c r="T11" s="80"/>
       <c r="U11" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V11" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W11" s="35"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A12" s="28"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A12" s="72"/>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1803,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="8">
         <v>3</v>
       </c>
@@ -1811,65 +2029,54 @@
         <f t="shared" si="0"/>
         <v>12.450000000000001</v>
       </c>
-      <c r="N12" s="35"/>
+      <c r="N12" s="80"/>
       <c r="O12" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q12" s="35"/>
+      <c r="Q12" s="80"/>
       <c r="R12" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S12" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T12" s="35"/>
+      <c r="T12" s="80"/>
       <c r="U12" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V12" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W12" s="35"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="35"/>
-      <c r="Y13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A14" s="32" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A14" s="85" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1891,7 +2098,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="36"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="8">
         <v>8</v>
       </c>
@@ -1899,40 +2106,30 @@
         <f>H14*L14</f>
         <v>108.8</v>
       </c>
-      <c r="N14" s="35"/>
+      <c r="N14" s="80"/>
       <c r="O14" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q14" s="35"/>
+      <c r="Q14" s="80"/>
       <c r="R14" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="35"/>
+      <c r="T14" s="80"/>
       <c r="U14" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W14" s="35"/>
-      <c r="Y14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A15" s="33"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A15" s="86"/>
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="36"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="8">
         <v>4</v>
       </c>
@@ -1960,40 +2157,30 @@
         <f>H15*L15</f>
         <v>33.56</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="80"/>
       <c r="O15" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q15" s="35"/>
+      <c r="Q15" s="80"/>
       <c r="R15" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T15" s="35"/>
+      <c r="T15" s="80"/>
       <c r="U15" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W15" s="35"/>
-      <c r="Y15" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A16" s="33"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A16" s="86"/>
       <c r="B16" s="8" t="s">
         <v>136</v>
       </c>
@@ -2013,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="8">
         <v>2</v>
       </c>
@@ -2021,40 +2208,30 @@
         <f>H16*L16</f>
         <v>20.92</v>
       </c>
-      <c r="N16" s="35"/>
+      <c r="N16" s="80"/>
       <c r="O16" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q16" s="35"/>
+      <c r="Q16" s="80"/>
       <c r="R16" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S16" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T16" s="35"/>
+      <c r="T16" s="80"/>
       <c r="U16" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V16" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W16" s="35"/>
-      <c r="Y16" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A17" s="33"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A17" s="86"/>
       <c r="B17" s="8" t="s">
         <v>136</v>
       </c>
@@ -2074,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="36"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="8">
         <v>3</v>
       </c>
@@ -2082,51 +2259,41 @@
         <f>H17*L17</f>
         <v>39.21</v>
       </c>
-      <c r="N17" s="35"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q17" s="35"/>
+      <c r="Q17" s="80"/>
       <c r="R17" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S17" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T17" s="35"/>
+      <c r="T17" s="80"/>
       <c r="U17" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V17" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="Y17" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A18" s="34"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A18" s="87"/>
       <c r="B18" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="6"/>
       <c r="G18" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H18" s="7">
         <v>2.96</v>
@@ -2135,21 +2302,21 @@
         <v>1</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="36"/>
+      <c r="K18" s="77"/>
       <c r="L18" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="80"/>
       <c r="O18" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q18" s="35"/>
+      <c r="Q18" s="80"/>
       <c r="R18" s="8">
         <v>1</v>
       </c>
@@ -2157,54 +2324,43 @@
         <f>H18*R18</f>
         <v>2.96</v>
       </c>
-      <c r="T18" s="35"/>
+      <c r="T18" s="80"/>
       <c r="U18" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V18" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W18" s="35"/>
-      <c r="Y18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="35"/>
-      <c r="AA19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A20" s="28" t="s">
+    </row>
+    <row r="19" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+    </row>
+    <row r="20" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A20" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="73" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2227,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="8"/>
-      <c r="K20" s="36"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="8">
         <v>1</v>
       </c>
@@ -2235,38 +2391,31 @@
         <f t="shared" ref="M20:M25" si="1">H20*L20</f>
         <v>9.14</v>
       </c>
-      <c r="N20" s="35"/>
+      <c r="N20" s="80"/>
       <c r="O20" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q20" s="35"/>
+      <c r="Q20" s="80"/>
       <c r="R20" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S20" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="35"/>
+      <c r="T20" s="80"/>
       <c r="U20" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V20" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W20" s="35"/>
-      <c r="Y20" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="14" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="41"/>
+    </row>
+    <row r="21" spans="1:22" ht="14" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="8" t="s">
         <v>94</v>
       </c>
@@ -2287,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="36"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="8">
         <v>2</v>
       </c>
@@ -2295,40 +2444,30 @@
         <f t="shared" si="1"/>
         <v>8.68</v>
       </c>
-      <c r="N21" s="35"/>
+      <c r="N21" s="80"/>
       <c r="O21" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q21" s="35"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S21" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T21" s="35"/>
+      <c r="T21" s="80"/>
       <c r="U21" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V21" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W21" s="35"/>
-      <c r="Y21" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A22" s="28"/>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A22" s="72"/>
       <c r="B22" s="8" t="s">
         <v>81</v>
       </c>
@@ -2348,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="36"/>
+      <c r="K22" s="77"/>
       <c r="L22" s="8">
         <v>4</v>
       </c>
@@ -2356,40 +2495,30 @@
         <f t="shared" si="1"/>
         <v>28.68</v>
       </c>
-      <c r="N22" s="35"/>
+      <c r="N22" s="80"/>
       <c r="O22" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q22" s="35"/>
+      <c r="Q22" s="80"/>
       <c r="R22" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S22" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T22" s="35"/>
+      <c r="T22" s="80"/>
       <c r="U22" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V22" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W22" s="35"/>
-      <c r="Y22" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A23" s="28"/>
+    </row>
+    <row r="23" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A23" s="72"/>
       <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
@@ -2409,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="8"/>
-      <c r="K23" s="36"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="8">
         <v>10</v>
       </c>
@@ -2417,34 +2546,30 @@
         <f t="shared" si="1"/>
         <v>16.599999999999998</v>
       </c>
-      <c r="N23" s="35"/>
+      <c r="N23" s="80"/>
       <c r="O23" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q23" s="35"/>
+      <c r="Q23" s="80"/>
       <c r="R23" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S23" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T23" s="35"/>
+      <c r="T23" s="80"/>
       <c r="U23" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V23" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W23" s="35"/>
-      <c r="AA23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A24" s="28"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A24" s="72"/>
       <c r="B24" s="8" t="s">
         <v>141</v>
       </c>
@@ -2466,7 +2591,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="8"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="8">
         <v>10</v>
       </c>
@@ -2474,31 +2599,30 @@
         <f t="shared" si="1"/>
         <v>20.8</v>
       </c>
-      <c r="N24" s="35"/>
+      <c r="N24" s="80"/>
       <c r="O24" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P24" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="80"/>
       <c r="R24" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S24" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T24" s="35"/>
+      <c r="T24" s="80"/>
       <c r="U24" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V24" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W24" s="35"/>
-    </row>
-    <row r="25" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A25" s="28"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A25" s="72"/>
       <c r="B25" s="8" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="36"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="8">
         <v>10</v>
       </c>
@@ -2528,21 +2652,21 @@
         <f t="shared" si="1"/>
         <v>37.799999999999997</v>
       </c>
-      <c r="N25" s="35"/>
+      <c r="N25" s="80"/>
       <c r="O25" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q25" s="35"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S25" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="35"/>
+      <c r="T25" s="80"/>
       <c r="U25" s="8">
         <v>10</v>
       </c>
@@ -2550,38 +2674,36 @@
         <f>H25*U25</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="W25" s="35"/>
-    </row>
-    <row r="26" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="35"/>
-    </row>
-    <row r="27" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A27" s="28" t="s">
+    </row>
+    <row r="26" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+    </row>
+    <row r="27" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A27" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="73" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -2600,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="J27" s="8"/>
-      <c r="K27" s="36"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="8">
         <v>5</v>
       </c>
@@ -2608,32 +2730,31 @@
         <f>H27*L27</f>
         <v>11.55</v>
       </c>
-      <c r="N27" s="35"/>
+      <c r="N27" s="80"/>
       <c r="O27" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q27" s="35"/>
+      <c r="Q27" s="80"/>
       <c r="R27" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S27" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="35"/>
+      <c r="T27" s="80"/>
       <c r="U27" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V27" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W27" s="35"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="41"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="8" t="s">
         <v>64</v>
       </c>
@@ -2650,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="8"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="8">
         <v>5</v>
       </c>
@@ -2658,31 +2779,30 @@
         <f>H28*L28</f>
         <v>11.55</v>
       </c>
-      <c r="N28" s="35"/>
+      <c r="N28" s="80"/>
       <c r="O28" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q28" s="35"/>
+      <c r="Q28" s="80"/>
       <c r="R28" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S28" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T28" s="35"/>
+      <c r="T28" s="80"/>
       <c r="U28" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V28" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W28" s="35"/>
-    </row>
-    <row r="29" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A29" s="28"/>
+    </row>
+    <row r="29" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A29" s="72"/>
       <c r="B29" s="8" t="s">
         <v>84</v>
       </c>
@@ -2706,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="8"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="8">
         <v>1</v>
       </c>
@@ -2714,56 +2834,54 @@
         <f>H29*L29</f>
         <v>92.78</v>
       </c>
-      <c r="N29" s="35"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q29" s="35"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S29" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T29" s="35"/>
+      <c r="T29" s="80"/>
       <c r="U29" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V29" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W29" s="35"/>
-    </row>
-    <row r="30" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="35"/>
-    </row>
-    <row r="31" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A31" s="28" t="s">
+    </row>
+    <row r="30" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+    </row>
+    <row r="31" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A31" s="72" t="s">
         <v>144</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -2789,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="36"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="8">
         <v>1</v>
       </c>
@@ -2797,31 +2915,30 @@
         <f t="shared" ref="M31:M39" si="2">H31*L31</f>
         <v>10.83</v>
       </c>
-      <c r="N31" s="35"/>
+      <c r="N31" s="80"/>
       <c r="O31" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q31" s="35"/>
+      <c r="Q31" s="80"/>
       <c r="R31" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S31" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T31" s="35"/>
+      <c r="T31" s="80"/>
       <c r="U31" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V31" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W31" s="35"/>
-    </row>
-    <row r="32" spans="1:27" ht="15" thickTop="1" thickBot="1">
-      <c r="A32" s="28"/>
+    </row>
+    <row r="32" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A32" s="72"/>
       <c r="B32" s="8" t="s">
         <v>105</v>
       </c>
@@ -2843,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="8"/>
-      <c r="K32" s="36"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="8">
         <v>1</v>
       </c>
@@ -2851,31 +2968,30 @@
         <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
-      <c r="N32" s="35"/>
+      <c r="N32" s="80"/>
       <c r="O32" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q32" s="35"/>
+      <c r="Q32" s="80"/>
       <c r="R32" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S32" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T32" s="35"/>
+      <c r="T32" s="80"/>
       <c r="U32" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V32" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W32" s="35"/>
-    </row>
-    <row r="33" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A33" s="28"/>
+    </row>
+    <row r="33" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A33" s="72"/>
       <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
@@ -2897,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="36"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="8">
         <v>1</v>
       </c>
@@ -2905,31 +3021,30 @@
         <f t="shared" si="2"/>
         <v>4.71</v>
       </c>
-      <c r="N33" s="35"/>
+      <c r="N33" s="80"/>
       <c r="O33" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q33" s="35"/>
+      <c r="Q33" s="80"/>
       <c r="R33" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S33" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T33" s="35"/>
+      <c r="T33" s="80"/>
       <c r="U33" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V33" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W33" s="35"/>
-    </row>
-    <row r="34" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A34" s="28"/>
+    </row>
+    <row r="34" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A34" s="72"/>
       <c r="B34" s="8" t="s">
         <v>105</v>
       </c>
@@ -2951,9 +3066,9 @@
         <v>0</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K34" s="36"/>
+        <v>206</v>
+      </c>
+      <c r="K34" s="77"/>
       <c r="L34" s="8">
         <v>2</v>
       </c>
@@ -2961,31 +3076,30 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N34" s="35"/>
+      <c r="N34" s="80"/>
       <c r="O34" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q34" s="35"/>
+      <c r="Q34" s="80"/>
       <c r="R34" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T34" s="35"/>
+      <c r="T34" s="80"/>
       <c r="U34" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W34" s="35"/>
-    </row>
-    <row r="35" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A35" s="28"/>
+    </row>
+    <row r="35" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A35" s="72"/>
       <c r="B35" s="8" t="s">
         <v>112</v>
       </c>
@@ -3007,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="8"/>
-      <c r="K35" s="36"/>
+      <c r="K35" s="77"/>
       <c r="L35" s="8">
         <v>2</v>
       </c>
@@ -3015,31 +3129,30 @@
         <f t="shared" si="2"/>
         <v>4.5599999999999996</v>
       </c>
-      <c r="N35" s="35"/>
+      <c r="N35" s="80"/>
       <c r="O35" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P35" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q35" s="35"/>
+      <c r="Q35" s="80"/>
       <c r="R35" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S35" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T35" s="35"/>
+      <c r="T35" s="80"/>
       <c r="U35" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V35" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W35" s="35"/>
-    </row>
-    <row r="36" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A36" s="28"/>
+    </row>
+    <row r="36" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A36" s="72"/>
       <c r="B36" s="8" t="s">
         <v>114</v>
       </c>
@@ -3061,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="8"/>
-      <c r="K36" s="36"/>
+      <c r="K36" s="77"/>
       <c r="L36" s="8">
         <v>1</v>
       </c>
@@ -3069,31 +3182,30 @@
         <f t="shared" si="2"/>
         <v>11.17</v>
       </c>
-      <c r="N36" s="35"/>
+      <c r="N36" s="80"/>
       <c r="O36" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P36" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q36" s="35"/>
+      <c r="Q36" s="80"/>
       <c r="R36" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S36" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T36" s="35"/>
+      <c r="T36" s="80"/>
       <c r="U36" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V36" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W36" s="35"/>
-    </row>
-    <row r="37" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A37" s="28"/>
+    </row>
+    <row r="37" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A37" s="72"/>
       <c r="B37" s="8" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="8"/>
-      <c r="K37" s="36"/>
+      <c r="K37" s="77"/>
       <c r="L37" s="8">
         <v>1</v>
       </c>
@@ -3123,31 +3235,30 @@
         <f t="shared" si="2"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="N37" s="35"/>
+      <c r="N37" s="80"/>
       <c r="O37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P37" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q37" s="35"/>
+      <c r="Q37" s="80"/>
       <c r="R37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S37" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T37" s="35"/>
+      <c r="T37" s="80"/>
       <c r="U37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V37" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W37" s="35"/>
-    </row>
-    <row r="38" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A38" s="28"/>
+    </row>
+    <row r="38" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A38" s="72"/>
       <c r="B38" s="8" t="s">
         <v>123</v>
       </c>
@@ -3165,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="36"/>
+      <c r="K38" s="77"/>
       <c r="L38" s="8">
         <v>4</v>
       </c>
@@ -3173,31 +3284,30 @@
         <f t="shared" si="2"/>
         <v>11.08</v>
       </c>
-      <c r="N38" s="35"/>
+      <c r="N38" s="80"/>
       <c r="O38" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P38" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q38" s="35"/>
+      <c r="Q38" s="80"/>
       <c r="R38" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S38" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T38" s="35"/>
+      <c r="T38" s="80"/>
       <c r="U38" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V38" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W38" s="35"/>
-    </row>
-    <row r="39" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A39" s="28"/>
+    </row>
+    <row r="39" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A39" s="72"/>
       <c r="B39" s="8" t="s">
         <v>120</v>
       </c>
@@ -3219,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="8"/>
-      <c r="K39" s="36"/>
+      <c r="K39" s="77"/>
       <c r="L39" s="8">
         <v>1</v>
       </c>
@@ -3227,59 +3337,57 @@
         <f t="shared" si="2"/>
         <v>9.1199999999999992</v>
       </c>
-      <c r="N39" s="35"/>
+      <c r="N39" s="80"/>
       <c r="O39" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P39" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q39" s="35"/>
+      <c r="Q39" s="80"/>
       <c r="R39" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S39" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T39" s="35"/>
+      <c r="T39" s="80"/>
       <c r="U39" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V39" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W39" s="35"/>
-    </row>
-    <row r="40" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="35"/>
-    </row>
-    <row r="41" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A41" s="28" t="s">
+    </row>
+    <row r="40" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+    </row>
+    <row r="41" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A41" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="73" t="s">
         <v>150</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -3298,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="12"/>
-      <c r="K41" s="36"/>
+      <c r="K41" s="77"/>
       <c r="L41" s="12">
         <v>1</v>
       </c>
@@ -3306,32 +3414,31 @@
         <f t="shared" ref="M41:M49" si="3">H41*L41</f>
         <v>5.97</v>
       </c>
-      <c r="N41" s="35"/>
+      <c r="N41" s="80"/>
       <c r="O41" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q41" s="35"/>
+      <c r="Q41" s="80"/>
       <c r="R41" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S41" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T41" s="35"/>
+      <c r="T41" s="80"/>
       <c r="U41" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V41" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W41" s="35"/>
-    </row>
-    <row r="42" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="41"/>
+    </row>
+    <row r="42" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A42" s="72"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="8" t="s">
         <v>146</v>
       </c>
@@ -3348,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="8"/>
-      <c r="K42" s="36"/>
+      <c r="K42" s="77"/>
       <c r="L42" s="8">
         <v>1</v>
       </c>
@@ -3356,32 +3463,31 @@
         <f t="shared" si="3"/>
         <v>3.38</v>
       </c>
-      <c r="N42" s="35"/>
+      <c r="N42" s="80"/>
       <c r="O42" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P42" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q42" s="35"/>
+      <c r="Q42" s="80"/>
       <c r="R42" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S42" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T42" s="35"/>
+      <c r="T42" s="80"/>
       <c r="U42" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V42" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W42" s="35"/>
-    </row>
-    <row r="43" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="41"/>
+    </row>
+    <row r="43" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A43" s="72"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="12" t="s">
         <v>147</v>
       </c>
@@ -3398,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="8"/>
-      <c r="K43" s="36"/>
+      <c r="K43" s="77"/>
       <c r="L43" s="8">
         <v>1</v>
       </c>
@@ -3406,32 +3512,31 @@
         <f t="shared" si="3"/>
         <v>5.19</v>
       </c>
-      <c r="N43" s="35"/>
+      <c r="N43" s="80"/>
       <c r="O43" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P43" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q43" s="35"/>
+      <c r="Q43" s="80"/>
       <c r="R43" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S43" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T43" s="35"/>
+      <c r="T43" s="80"/>
       <c r="U43" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V43" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W43" s="35"/>
-    </row>
-    <row r="44" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="41"/>
+    </row>
+    <row r="44" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A44" s="72"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="8" t="s">
         <v>161</v>
       </c>
@@ -3448,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="8"/>
-      <c r="K44" s="36"/>
+      <c r="K44" s="77"/>
       <c r="L44" s="8">
         <v>1</v>
       </c>
@@ -3456,32 +3561,31 @@
         <f t="shared" si="3"/>
         <v>8.35</v>
       </c>
-      <c r="N44" s="35"/>
+      <c r="N44" s="80"/>
       <c r="O44" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P44" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q44" s="35"/>
+      <c r="Q44" s="80"/>
       <c r="R44" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S44" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T44" s="35"/>
+      <c r="T44" s="80"/>
       <c r="U44" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V44" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W44" s="35"/>
-    </row>
-    <row r="45" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A45" s="28"/>
-      <c r="B45" s="41"/>
+    </row>
+    <row r="45" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A45" s="72"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="8" t="s">
         <v>111</v>
       </c>
@@ -3498,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="8"/>
-      <c r="K45" s="36"/>
+      <c r="K45" s="77"/>
       <c r="L45" s="8">
         <v>1</v>
       </c>
@@ -3506,32 +3610,31 @@
         <f t="shared" si="3"/>
         <v>6.72</v>
       </c>
-      <c r="N45" s="35"/>
+      <c r="N45" s="80"/>
       <c r="O45" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P45" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q45" s="35"/>
+      <c r="Q45" s="80"/>
       <c r="R45" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S45" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T45" s="35"/>
+      <c r="T45" s="80"/>
       <c r="U45" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V45" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W45" s="35"/>
-    </row>
-    <row r="46" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="42" t="s">
+    </row>
+    <row r="46" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A46" s="72"/>
+      <c r="B46" s="74" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -3550,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="8"/>
-      <c r="K46" s="36"/>
+      <c r="K46" s="77"/>
       <c r="L46" s="8">
         <v>1</v>
       </c>
@@ -3558,32 +3661,31 @@
         <f t="shared" si="3"/>
         <v>5.05</v>
       </c>
-      <c r="N46" s="35"/>
+      <c r="N46" s="80"/>
       <c r="O46" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P46" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q46" s="35"/>
+      <c r="Q46" s="80"/>
       <c r="R46" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S46" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T46" s="35"/>
+      <c r="T46" s="80"/>
       <c r="U46" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V46" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W46" s="35"/>
-    </row>
-    <row r="47" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="42"/>
+    </row>
+    <row r="47" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A47" s="72"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="12" t="s">
         <v>165</v>
       </c>
@@ -3600,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="8"/>
-      <c r="K47" s="36"/>
+      <c r="K47" s="77"/>
       <c r="L47" s="8">
         <v>1</v>
       </c>
@@ -3608,32 +3710,31 @@
         <f t="shared" si="3"/>
         <v>7.44</v>
       </c>
-      <c r="N47" s="35"/>
+      <c r="N47" s="80"/>
       <c r="O47" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P47" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q47" s="35"/>
+      <c r="Q47" s="80"/>
       <c r="R47" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S47" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T47" s="35"/>
+      <c r="T47" s="80"/>
       <c r="U47" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V47" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W47" s="35"/>
-    </row>
-    <row r="48" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="42"/>
+    </row>
+    <row r="48" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A48" s="72"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="12" t="s">
         <v>162</v>
       </c>
@@ -3650,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="8"/>
-      <c r="K48" s="36"/>
+      <c r="K48" s="77"/>
       <c r="L48" s="8">
         <v>1</v>
       </c>
@@ -3658,32 +3759,31 @@
         <f t="shared" si="3"/>
         <v>4.4400000000000004</v>
       </c>
-      <c r="N48" s="35"/>
+      <c r="N48" s="80"/>
       <c r="O48" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P48" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q48" s="35"/>
+      <c r="Q48" s="80"/>
       <c r="R48" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S48" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T48" s="35"/>
+      <c r="T48" s="80"/>
       <c r="U48" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W48" s="35"/>
-    </row>
-    <row r="49" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A49" s="28"/>
-      <c r="B49" s="42"/>
+    </row>
+    <row r="49" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A49" s="72"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="12" t="s">
         <v>154</v>
       </c>
@@ -3700,9 +3800,9 @@
         <v>0</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K49" s="36"/>
+        <v>206</v>
+      </c>
+      <c r="K49" s="77"/>
       <c r="L49" s="12">
         <v>1</v>
       </c>
@@ -3710,42 +3810,41 @@
         <f t="shared" si="3"/>
         <v>9.41</v>
       </c>
-      <c r="N49" s="35"/>
+      <c r="N49" s="80"/>
       <c r="O49" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q49" s="35"/>
+      <c r="Q49" s="80"/>
       <c r="R49" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S49" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T49" s="35"/>
+      <c r="T49" s="80"/>
       <c r="U49" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V49" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W49" s="35"/>
-    </row>
-    <row r="50" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="16" t="s">
+    </row>
+    <row r="50" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A50" s="72"/>
+      <c r="B50" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H50" s="7">
         <v>2.65</v>
@@ -3754,39 +3853,38 @@
         <v>24</v>
       </c>
       <c r="J50" s="12"/>
-      <c r="K50" s="36"/>
+      <c r="K50" s="77"/>
       <c r="L50" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M50" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N50" s="35"/>
+      <c r="N50" s="80"/>
       <c r="O50" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P50" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="23">
+      <c r="Q50" s="80"/>
+      <c r="R50" s="19">
         <v>24</v>
       </c>
       <c r="S50" s="7">
         <f>H50*R50</f>
         <v>63.599999999999994</v>
       </c>
-      <c r="T50" s="35"/>
+      <c r="T50" s="80"/>
       <c r="U50" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V50" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W50" s="35"/>
-    </row>
-    <row r="51" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A51" s="28" t="s">
+    </row>
+    <row r="51" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A51" s="72" t="s">
         <v>23</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3806,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="8"/>
-      <c r="K51" s="36"/>
+      <c r="K51" s="77"/>
       <c r="L51" s="8">
         <v>1</v>
       </c>
@@ -3814,31 +3912,30 @@
         <f>H51*L51</f>
         <v>2.91</v>
       </c>
-      <c r="N51" s="35"/>
+      <c r="N51" s="80"/>
       <c r="O51" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P51" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q51" s="35"/>
+      <c r="Q51" s="80"/>
       <c r="R51" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S51" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T51" s="35"/>
+      <c r="T51" s="80"/>
       <c r="U51" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V51" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W51" s="35"/>
-    </row>
-    <row r="52" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A52" s="28"/>
+    </row>
+    <row r="52" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A52" s="72"/>
       <c r="B52" s="8" t="s">
         <v>145</v>
       </c>
@@ -3856,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="8"/>
-      <c r="K52" s="36"/>
+      <c r="K52" s="77"/>
       <c r="L52" s="8">
         <v>1</v>
       </c>
@@ -3864,31 +3961,30 @@
         <f>H52*L52</f>
         <v>7.24</v>
       </c>
-      <c r="N52" s="35"/>
+      <c r="N52" s="80"/>
       <c r="O52" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P52" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q52" s="35"/>
+      <c r="Q52" s="80"/>
       <c r="R52" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S52" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T52" s="35"/>
+      <c r="T52" s="80"/>
       <c r="U52" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V52" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W52" s="35"/>
-    </row>
-    <row r="53" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A53" s="28"/>
+    </row>
+    <row r="53" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A53" s="72"/>
       <c r="B53" s="11" t="s">
         <v>159</v>
       </c>
@@ -3906,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="8"/>
-      <c r="K53" s="36"/>
+      <c r="K53" s="77"/>
       <c r="L53" s="8">
         <v>1</v>
       </c>
@@ -3914,31 +4010,30 @@
         <f>H53*L53</f>
         <v>6.51</v>
       </c>
-      <c r="N53" s="35"/>
+      <c r="N53" s="80"/>
       <c r="O53" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P53" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q53" s="35"/>
+      <c r="Q53" s="80"/>
       <c r="R53" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S53" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T53" s="35"/>
+      <c r="T53" s="80"/>
       <c r="U53" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V53" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W53" s="35"/>
-    </row>
-    <row r="54" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A54" s="28"/>
+    </row>
+    <row r="54" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A54" s="72"/>
       <c r="B54" s="12" t="s">
         <v>157</v>
       </c>
@@ -3956,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="12"/>
-      <c r="K54" s="36"/>
+      <c r="K54" s="77"/>
       <c r="L54" s="12">
         <v>1</v>
       </c>
@@ -3964,59 +4059,57 @@
         <f>H54*L54</f>
         <v>8.73</v>
       </c>
-      <c r="N54" s="35"/>
+      <c r="N54" s="80"/>
       <c r="O54" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P54" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q54" s="35"/>
+      <c r="Q54" s="80"/>
       <c r="R54" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S54" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T54" s="35"/>
+      <c r="T54" s="80"/>
       <c r="U54" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V54" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W54" s="35"/>
-    </row>
-    <row r="55" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="35"/>
-    </row>
-    <row r="56" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A56" s="28" t="s">
+    </row>
+    <row r="55" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+    </row>
+    <row r="56" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A56" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="73" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -4037,16 +4130,16 @@
         <v>4</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="K56" s="36"/>
+        <v>207</v>
+      </c>
+      <c r="K56" s="77"/>
       <c r="L56" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M56" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N56" s="35"/>
+      <c r="N56" s="80"/>
       <c r="O56" s="12">
         <v>2</v>
       </c>
@@ -4054,25 +4147,24 @@
         <f>H56*O56</f>
         <v>191.64</v>
       </c>
-      <c r="Q56" s="35"/>
+      <c r="Q56" s="80"/>
       <c r="R56" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S56" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T56" s="35"/>
+      <c r="T56" s="80"/>
       <c r="U56" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V56" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W56" s="35"/>
-    </row>
-    <row r="57" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A57" s="28"/>
-      <c r="B57" s="41"/>
+    </row>
+    <row r="57" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A57" s="72"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="8" t="s">
         <v>9</v>
       </c>
@@ -4091,16 +4183,16 @@
         <v>4</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="K57" s="36"/>
+        <v>208</v>
+      </c>
+      <c r="K57" s="77"/>
       <c r="L57" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M57" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N57" s="35"/>
+      <c r="N57" s="80"/>
       <c r="O57" s="12">
         <v>0</v>
       </c>
@@ -4108,24 +4200,23 @@
         <f>H57*O57</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="35"/>
+      <c r="Q57" s="80"/>
       <c r="R57" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S57" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T57" s="35"/>
+      <c r="T57" s="80"/>
       <c r="U57" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V57" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W57" s="35"/>
-    </row>
-    <row r="58" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A58" s="28"/>
+    </row>
+    <row r="58" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A58" s="72"/>
       <c r="B58" s="8" t="s">
         <v>6</v>
       </c>
@@ -4147,16 +4238,16 @@
         <v>16</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58" s="36"/>
+        <v>209</v>
+      </c>
+      <c r="K58" s="77"/>
       <c r="L58" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M58" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N58" s="35"/>
+      <c r="N58" s="80"/>
       <c r="O58" s="8">
         <v>8</v>
       </c>
@@ -4164,49 +4255,47 @@
         <f>H58*O58</f>
         <v>201.52</v>
       </c>
-      <c r="Q58" s="35"/>
+      <c r="Q58" s="80"/>
       <c r="R58" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S58" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T58" s="35"/>
+      <c r="T58" s="80"/>
       <c r="U58" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V58" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W58" s="35"/>
-    </row>
-    <row r="59" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="35"/>
-    </row>
-    <row r="60" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A60" s="28" t="s">
+    </row>
+    <row r="59" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+    </row>
+    <row r="60" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A60" s="72" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -4230,16 +4319,16 @@
         <v>12</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="36"/>
+        <v>209</v>
+      </c>
+      <c r="K60" s="77"/>
       <c r="L60" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M60" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N60" s="35"/>
+      <c r="N60" s="80"/>
       <c r="O60" s="8">
         <v>4</v>
       </c>
@@ -4247,25 +4336,24 @@
         <f t="shared" ref="P60:P66" si="4">H60*O60</f>
         <v>272.8</v>
       </c>
-      <c r="Q60" s="35"/>
+      <c r="Q60" s="80"/>
       <c r="R60" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S60" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T60" s="35"/>
+      <c r="T60" s="80"/>
       <c r="U60" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V60" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W60" s="35"/>
-      <c r="Y60" s="13"/>
-    </row>
-    <row r="61" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A61" s="28"/>
+      <c r="X60" s="13"/>
+    </row>
+    <row r="61" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A61" s="72"/>
       <c r="B61" s="8" t="s">
         <v>15</v>
       </c>
@@ -4285,16 +4373,16 @@
         <v>4</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K61" s="36"/>
+        <v>210</v>
+      </c>
+      <c r="K61" s="77"/>
       <c r="L61" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M61" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N61" s="35"/>
+      <c r="N61" s="80"/>
       <c r="O61" s="8">
         <v>0</v>
       </c>
@@ -4302,28 +4390,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="35"/>
+      <c r="Q61" s="80"/>
       <c r="R61" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S61" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T61" s="35"/>
+      <c r="T61" s="80"/>
       <c r="U61" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V61" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W61" s="35"/>
-    </row>
-    <row r="62" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A62" s="28"/>
+    </row>
+    <row r="62" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A62" s="72"/>
       <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="82" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -4343,14 +4430,14 @@
         <v>4</v>
       </c>
       <c r="J62" s="8"/>
-      <c r="K62" s="36"/>
+      <c r="K62" s="77"/>
       <c r="L62" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M62" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N62" s="35"/>
+      <c r="N62" s="80"/>
       <c r="O62" s="8">
         <v>4</v>
       </c>
@@ -4358,28 +4445,27 @@
         <f t="shared" si="4"/>
         <v>146.36000000000001</v>
       </c>
-      <c r="Q62" s="35"/>
+      <c r="Q62" s="80"/>
       <c r="R62" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S62" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T62" s="35"/>
+      <c r="T62" s="80"/>
       <c r="U62" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V62" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W62" s="35"/>
-    </row>
-    <row r="63" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A63" s="28"/>
+    </row>
+    <row r="63" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A63" s="72"/>
       <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="39"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="8" t="s">
         <v>55</v>
       </c>
@@ -4397,14 +4483,14 @@
         <v>4</v>
       </c>
       <c r="J63" s="8"/>
-      <c r="K63" s="36"/>
+      <c r="K63" s="77"/>
       <c r="L63" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M63" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N63" s="35"/>
+      <c r="N63" s="80"/>
       <c r="O63" s="8">
         <v>4</v>
       </c>
@@ -4412,28 +4498,27 @@
         <f t="shared" si="4"/>
         <v>147.24</v>
       </c>
-      <c r="Q63" s="35"/>
+      <c r="Q63" s="80"/>
       <c r="R63" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S63" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T63" s="35"/>
+      <c r="T63" s="80"/>
       <c r="U63" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V63" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W63" s="35"/>
-    </row>
-    <row r="64" spans="1:25" ht="15" thickTop="1" thickBot="1">
-      <c r="A64" s="28"/>
+    </row>
+    <row r="64" spans="1:24" ht="15" thickTop="1" thickBot="1">
+      <c r="A64" s="72"/>
       <c r="B64" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="39"/>
+      <c r="C64" s="82"/>
       <c r="D64" s="8" t="s">
         <v>50</v>
       </c>
@@ -4451,16 +4536,16 @@
         <v>8</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K64" s="36"/>
+        <v>210</v>
+      </c>
+      <c r="K64" s="77"/>
       <c r="L64" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M64" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N64" s="35"/>
+      <c r="N64" s="80"/>
       <c r="O64" s="8">
         <v>4</v>
       </c>
@@ -4468,24 +4553,23 @@
         <f t="shared" si="4"/>
         <v>73.400000000000006</v>
       </c>
-      <c r="Q64" s="35"/>
+      <c r="Q64" s="80"/>
       <c r="R64" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S64" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T64" s="35"/>
+      <c r="T64" s="80"/>
       <c r="U64" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V64" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W64" s="35"/>
-    </row>
-    <row r="65" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A65" s="28"/>
+    </row>
+    <row r="65" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A65" s="72"/>
       <c r="B65" s="8" t="s">
         <v>44</v>
       </c>
@@ -4507,16 +4591,16 @@
         <v>0</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K65" s="36"/>
+        <v>206</v>
+      </c>
+      <c r="K65" s="77"/>
       <c r="L65" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M65" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N65" s="35"/>
+      <c r="N65" s="80"/>
       <c r="O65" s="8">
         <v>8</v>
       </c>
@@ -4524,24 +4608,23 @@
         <f t="shared" si="4"/>
         <v>72.64</v>
       </c>
-      <c r="Q65" s="35"/>
+      <c r="Q65" s="80"/>
       <c r="R65" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S65" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T65" s="35"/>
+      <c r="T65" s="80"/>
       <c r="U65" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V65" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W65" s="35"/>
-    </row>
-    <row r="66" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A66" s="28"/>
+    </row>
+    <row r="66" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A66" s="72"/>
       <c r="B66" s="8" t="s">
         <v>46</v>
       </c>
@@ -4559,14 +4642,14 @@
         <v>1</v>
       </c>
       <c r="J66" s="8"/>
-      <c r="K66" s="36"/>
+      <c r="K66" s="77"/>
       <c r="L66" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M66" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N66" s="35"/>
+      <c r="N66" s="80"/>
       <c r="O66" s="8">
         <v>1</v>
       </c>
@@ -4574,49 +4657,47 @@
         <f t="shared" si="4"/>
         <v>11.59</v>
       </c>
-      <c r="Q66" s="35"/>
+      <c r="Q66" s="80"/>
       <c r="R66" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S66" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T66" s="35"/>
+      <c r="T66" s="80"/>
       <c r="U66" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V66" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W66" s="35"/>
-    </row>
-    <row r="67" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="35"/>
-    </row>
-    <row r="68" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A68" s="29"/>
+    </row>
+    <row r="67" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="80"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+    </row>
+    <row r="68" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A68" s="69"/>
       <c r="B68" s="12" t="s">
         <v>180</v>
       </c>
@@ -4636,14 +4717,14 @@
         <v>1</v>
       </c>
       <c r="J68" s="12"/>
-      <c r="K68" s="36"/>
+      <c r="K68" s="77"/>
       <c r="L68" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M68" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N68" s="35"/>
+      <c r="N68" s="80"/>
       <c r="O68" s="12">
         <v>1</v>
       </c>
@@ -4651,24 +4732,23 @@
         <f>H68*O68</f>
         <v>55.76</v>
       </c>
-      <c r="Q68" s="35"/>
+      <c r="Q68" s="80"/>
       <c r="R68" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S68" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T68" s="35"/>
+      <c r="T68" s="80"/>
       <c r="U68" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V68" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W68" s="35"/>
-    </row>
-    <row r="69" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A69" s="30"/>
+    </row>
+    <row r="69" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A69" s="70"/>
       <c r="B69" s="12" t="s">
         <v>180</v>
       </c>
@@ -4688,16 +4768,16 @@
         <v>1</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="K69" s="36"/>
+        <v>206</v>
+      </c>
+      <c r="K69" s="77"/>
       <c r="L69" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M69" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N69" s="35"/>
+      <c r="N69" s="80"/>
       <c r="O69" s="12">
         <v>1</v>
       </c>
@@ -4705,35 +4785,34 @@
         <f>H69*O69</f>
         <v>5.37</v>
       </c>
-      <c r="Q69" s="35"/>
+      <c r="Q69" s="80"/>
       <c r="R69" s="14" t="s">
         <v>187</v>
       </c>
       <c r="S69" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="T69" s="35"/>
+      <c r="T69" s="80"/>
       <c r="U69" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V69" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W69" s="35"/>
-    </row>
-    <row r="70" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A70" s="31"/>
+    </row>
+    <row r="70" spans="1:22" ht="15" thickTop="1" thickBot="1">
+      <c r="A70" s="71"/>
       <c r="B70" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="6"/>
       <c r="G70" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H70" s="7">
         <v>9.43</v>
@@ -4742,94 +4821,66 @@
         <v>1</v>
       </c>
       <c r="J70" s="12"/>
-      <c r="K70" s="36"/>
+      <c r="K70" s="78"/>
       <c r="L70" s="14" t="s">
         <v>187</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="N70" s="35"/>
+      <c r="N70" s="81"/>
       <c r="O70" s="14" t="s">
         <v>187</v>
       </c>
       <c r="P70" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="23">
+      <c r="Q70" s="81"/>
+      <c r="R70" s="19">
         <v>1</v>
       </c>
       <c r="S70" s="7">
         <f>H70*R70</f>
         <v>9.43</v>
       </c>
-      <c r="T70" s="35"/>
+      <c r="T70" s="81"/>
       <c r="U70" s="14" t="s">
         <v>187</v>
       </c>
       <c r="V70" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="W70" s="35"/>
-    </row>
-    <row r="71" spans="1:23" ht="15" thickTop="1" thickBot="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="35"/>
-    </row>
-    <row r="72" spans="1:23" ht="14.65" thickTop="1"/>
+    </row>
+    <row r="71" spans="1:22" ht="14.65" thickTop="1"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="K1:K70"/>
+    <mergeCell ref="N1:N70"/>
+    <mergeCell ref="Q1:Q70"/>
+    <mergeCell ref="T1:T70"/>
     <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A41:A50"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A56:A58"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="Q2:Q71"/>
-    <mergeCell ref="K2:K71"/>
-    <mergeCell ref="N2:N71"/>
-    <mergeCell ref="W2:W71"/>
-    <mergeCell ref="T2:T71"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A56:A58"/>
     <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A31:A39"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B14:V18 B31:V39 B41:V54 B56:V58 B60:V66 B2:V12 B20:V25 B27:V29 B68:V70">
-    <cfRule type="expression" dxfId="0" priority="28">
+  <conditionalFormatting sqref="B14:J18 B31:J39 B41:J54 B56:J58 B60:J66 B2:J12 B20:J25 B27:J29 B68:J70 L68:M70 L27:M29 L20:M25 L2:M12 L60:M66 L56:M58 L41:M54 L31:M39 L14:M18 O14:P18 O31:P39 O41:P54 O56:P58 O60:P66 O2:P12 O20:P25 O27:P29 O68:P70 R68:S70 R27:S29 R20:S25 R2:S12 R60:S66 R56:S58 R41:S54 R31:S39 R14:S18 U14:V18 U31:V39 U41:V54 U56:V58 U60:V66 U2:V12 U20:V25 U27:V29 U68:V70">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4891,6 +4942,4953 @@
     <hyperlink ref="G50" r:id="rId55" location="94567a510/=1d2s6uf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId56"/>
+  <pageSetup scale="47" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId56"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.53125" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.53125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" customWidth="1"/>
+    <col min="13" max="13" width="2.53125" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" customWidth="1"/>
+    <col min="16" max="16" width="2.53125" customWidth="1"/>
+    <col min="17" max="17" width="8.86328125" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" customWidth="1"/>
+    <col min="20" max="20" width="10.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="28.5">
+      <c r="A1" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="97"/>
+      <c r="H1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="56">
+        <v>1235.68</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="56">
+        <v>1256.92</v>
+      </c>
+      <c r="M1" s="94"/>
+      <c r="N1" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="56">
+        <v>148.63</v>
+      </c>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="R1" s="56">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="58">
+        <v>12.31</v>
+      </c>
+      <c r="F2" s="59">
+        <v>4</v>
+      </c>
+      <c r="G2" s="98"/>
+      <c r="H2" s="59">
+        <v>4</v>
+      </c>
+      <c r="I2" s="58">
+        <f>E2*H2</f>
+        <v>49.24</v>
+      </c>
+      <c r="J2" s="95"/>
+      <c r="K2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="95"/>
+      <c r="N2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="58">
+        <v>10.57</v>
+      </c>
+      <c r="F3" s="59">
+        <v>10</v>
+      </c>
+      <c r="G3" s="98"/>
+      <c r="H3" s="59">
+        <v>9</v>
+      </c>
+      <c r="I3" s="58">
+        <f>E3*H3</f>
+        <v>95.13</v>
+      </c>
+      <c r="J3" s="95"/>
+      <c r="K3" s="59">
+        <v>1</v>
+      </c>
+      <c r="L3" s="58">
+        <f>E3*K3</f>
+        <v>10.57</v>
+      </c>
+      <c r="M3" s="95"/>
+      <c r="N3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="58">
+        <v>7.79</v>
+      </c>
+      <c r="F4" s="59">
+        <v>5</v>
+      </c>
+      <c r="G4" s="98"/>
+      <c r="H4" s="59">
+        <v>5</v>
+      </c>
+      <c r="I4" s="58">
+        <f>E4*H4</f>
+        <v>38.950000000000003</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="59">
+        <v>1</v>
+      </c>
+      <c r="L4" s="58">
+        <f>E4*K4</f>
+        <v>7.79</v>
+      </c>
+      <c r="M4" s="95"/>
+      <c r="N4" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="58">
+        <v>5.84</v>
+      </c>
+      <c r="F5" s="62">
+        <v>2</v>
+      </c>
+      <c r="G5" s="98"/>
+      <c r="H5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="95"/>
+      <c r="K5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="95"/>
+      <c r="N5" s="59">
+        <v>2</v>
+      </c>
+      <c r="O5" s="58">
+        <f>E5*N5</f>
+        <v>11.68</v>
+      </c>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="88"/>
+      <c r="B6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="58">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="59">
+        <v>38</v>
+      </c>
+      <c r="G6" s="98"/>
+      <c r="H6" s="59">
+        <v>32</v>
+      </c>
+      <c r="I6" s="58">
+        <f t="shared" ref="I6:I12" si="0">E6*H6</f>
+        <v>158.72</v>
+      </c>
+      <c r="J6" s="95"/>
+      <c r="K6" s="59">
+        <v>6</v>
+      </c>
+      <c r="L6" s="58">
+        <f>E6*K6</f>
+        <v>29.759999999999998</v>
+      </c>
+      <c r="M6" s="95"/>
+      <c r="N6" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="88"/>
+      <c r="B7" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="58">
+        <v>7.62</v>
+      </c>
+      <c r="F7" s="59">
+        <v>8</v>
+      </c>
+      <c r="G7" s="98"/>
+      <c r="H7" s="59">
+        <v>8</v>
+      </c>
+      <c r="I7" s="58">
+        <f t="shared" si="0"/>
+        <v>60.96</v>
+      </c>
+      <c r="J7" s="95"/>
+      <c r="K7" s="59">
+        <v>4</v>
+      </c>
+      <c r="L7" s="58">
+        <f>E7*K7</f>
+        <v>30.48</v>
+      </c>
+      <c r="M7" s="95"/>
+      <c r="N7" s="59">
+        <v>8</v>
+      </c>
+      <c r="O7" s="58">
+        <f>E7*N7</f>
+        <v>60.96</v>
+      </c>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="88"/>
+      <c r="B8" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="58">
+        <v>7.95</v>
+      </c>
+      <c r="F8" s="59">
+        <v>10</v>
+      </c>
+      <c r="G8" s="98"/>
+      <c r="H8" s="59">
+        <v>10</v>
+      </c>
+      <c r="I8" s="58">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
+      <c r="J8" s="95"/>
+      <c r="K8" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="59">
+        <v>2</v>
+      </c>
+      <c r="R8" s="58">
+        <f>E8*Q8</f>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="88"/>
+      <c r="B9" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="58">
+        <v>9.86</v>
+      </c>
+      <c r="F9" s="59">
+        <v>8</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="59">
+        <v>8</v>
+      </c>
+      <c r="I9" s="58">
+        <f t="shared" si="0"/>
+        <v>78.88</v>
+      </c>
+      <c r="J9" s="95"/>
+      <c r="K9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="95"/>
+      <c r="N9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R9" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="88"/>
+      <c r="B10" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F10" s="59">
+        <v>10</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="59">
+        <v>10</v>
+      </c>
+      <c r="I10" s="58">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J10" s="95"/>
+      <c r="K10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="95"/>
+      <c r="N10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R10" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="88"/>
+      <c r="B11" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="58">
+        <v>4.29</v>
+      </c>
+      <c r="F11" s="59">
+        <v>10</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="59">
+        <v>10</v>
+      </c>
+      <c r="I11" s="58">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="J11" s="95"/>
+      <c r="K11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="95"/>
+      <c r="N11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R11" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="88"/>
+      <c r="B12" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="58">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F12" s="59">
+        <v>3</v>
+      </c>
+      <c r="G12" s="98"/>
+      <c r="H12" s="59">
+        <v>3</v>
+      </c>
+      <c r="I12" s="58">
+        <f t="shared" si="0"/>
+        <v>12.450000000000001</v>
+      </c>
+      <c r="J12" s="95"/>
+      <c r="K12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" s="95"/>
+      <c r="N12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="54"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="58">
+        <v>13.6</v>
+      </c>
+      <c r="F14" s="59">
+        <v>8</v>
+      </c>
+      <c r="G14" s="98"/>
+      <c r="H14" s="59">
+        <v>8</v>
+      </c>
+      <c r="I14" s="58">
+        <f>E14*H14</f>
+        <v>108.8</v>
+      </c>
+      <c r="J14" s="95"/>
+      <c r="K14" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O14" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R14" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="88"/>
+      <c r="B15" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="58">
+        <v>8.39</v>
+      </c>
+      <c r="F15" s="59">
+        <v>4</v>
+      </c>
+      <c r="G15" s="98"/>
+      <c r="H15" s="59">
+        <v>4</v>
+      </c>
+      <c r="I15" s="58">
+        <f>E15*H15</f>
+        <v>33.56</v>
+      </c>
+      <c r="J15" s="95"/>
+      <c r="K15" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="95"/>
+      <c r="N15" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R15" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="88"/>
+      <c r="B16" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="58">
+        <v>10.46</v>
+      </c>
+      <c r="F16" s="59">
+        <v>2</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="59">
+        <v>2</v>
+      </c>
+      <c r="I16" s="58">
+        <f>E16*H16</f>
+        <v>20.92</v>
+      </c>
+      <c r="J16" s="95"/>
+      <c r="K16" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="95"/>
+      <c r="N16" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R16" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="88"/>
+      <c r="B17" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="58">
+        <v>13.07</v>
+      </c>
+      <c r="F17" s="59">
+        <v>3</v>
+      </c>
+      <c r="G17" s="98"/>
+      <c r="H17" s="59">
+        <v>3</v>
+      </c>
+      <c r="I17" s="58">
+        <f>E17*H17</f>
+        <v>39.21</v>
+      </c>
+      <c r="J17" s="95"/>
+      <c r="K17" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="95"/>
+      <c r="N17" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O17" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="88"/>
+      <c r="B18" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="58">
+        <v>2.96</v>
+      </c>
+      <c r="F18" s="59">
+        <v>1</v>
+      </c>
+      <c r="G18" s="98"/>
+      <c r="H18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="95"/>
+      <c r="K18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" s="95"/>
+      <c r="N18" s="59">
+        <v>1</v>
+      </c>
+      <c r="O18" s="58">
+        <f>E18*N18</f>
+        <v>2.96</v>
+      </c>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R18" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58">
+        <v>9.14</v>
+      </c>
+      <c r="F20" s="59">
+        <v>1</v>
+      </c>
+      <c r="G20" s="98"/>
+      <c r="H20" s="59">
+        <v>1</v>
+      </c>
+      <c r="I20" s="58">
+        <f t="shared" ref="I20:I25" si="1">E20*H20</f>
+        <v>9.14</v>
+      </c>
+      <c r="J20" s="95"/>
+      <c r="K20" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" s="95"/>
+      <c r="N20" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R20" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="14" customHeight="1">
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58">
+        <v>4.34</v>
+      </c>
+      <c r="F21" s="59">
+        <v>2</v>
+      </c>
+      <c r="G21" s="98"/>
+      <c r="H21" s="59">
+        <v>2</v>
+      </c>
+      <c r="I21" s="58">
+        <f t="shared" si="1"/>
+        <v>8.68</v>
+      </c>
+      <c r="J21" s="95"/>
+      <c r="K21" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" s="95"/>
+      <c r="N21" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R21" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="88"/>
+      <c r="B22" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58">
+        <v>7.17</v>
+      </c>
+      <c r="F22" s="59">
+        <v>4</v>
+      </c>
+      <c r="G22" s="98"/>
+      <c r="H22" s="59">
+        <v>4</v>
+      </c>
+      <c r="I22" s="58">
+        <f t="shared" si="1"/>
+        <v>28.68</v>
+      </c>
+      <c r="J22" s="95"/>
+      <c r="K22" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="95"/>
+      <c r="N22" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R22" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="88"/>
+      <c r="B23" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="58">
+        <v>1.66</v>
+      </c>
+      <c r="F23" s="59">
+        <v>10</v>
+      </c>
+      <c r="G23" s="98"/>
+      <c r="H23" s="59">
+        <v>10</v>
+      </c>
+      <c r="I23" s="58">
+        <f t="shared" si="1"/>
+        <v>16.599999999999998</v>
+      </c>
+      <c r="J23" s="95"/>
+      <c r="K23" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" s="95"/>
+      <c r="N23" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R23" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="88"/>
+      <c r="B24" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="58">
+        <v>2.08</v>
+      </c>
+      <c r="F24" s="59">
+        <v>10</v>
+      </c>
+      <c r="G24" s="98"/>
+      <c r="H24" s="59">
+        <v>10</v>
+      </c>
+      <c r="I24" s="58">
+        <f t="shared" si="1"/>
+        <v>20.8</v>
+      </c>
+      <c r="J24" s="95"/>
+      <c r="K24" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="95"/>
+      <c r="N24" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R24" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="88"/>
+      <c r="B25" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="58">
+        <v>3.78</v>
+      </c>
+      <c r="F25" s="59">
+        <v>10</v>
+      </c>
+      <c r="G25" s="98"/>
+      <c r="H25" s="59">
+        <v>10</v>
+      </c>
+      <c r="I25" s="58">
+        <f t="shared" si="1"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J25" s="95"/>
+      <c r="K25" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" s="95"/>
+      <c r="N25" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="59">
+        <v>10</v>
+      </c>
+      <c r="R25" s="58">
+        <f>E25*Q25</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58">
+        <v>2.31</v>
+      </c>
+      <c r="F27" s="59">
+        <v>5</v>
+      </c>
+      <c r="G27" s="98"/>
+      <c r="H27" s="59">
+        <v>5</v>
+      </c>
+      <c r="I27" s="58">
+        <f>E27*H27</f>
+        <v>11.55</v>
+      </c>
+      <c r="J27" s="95"/>
+      <c r="K27" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="95"/>
+      <c r="N27" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R27" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="58">
+        <v>2.31</v>
+      </c>
+      <c r="F28" s="59">
+        <v>5</v>
+      </c>
+      <c r="G28" s="98"/>
+      <c r="H28" s="59">
+        <v>5</v>
+      </c>
+      <c r="I28" s="58">
+        <f>E28*H28</f>
+        <v>11.55</v>
+      </c>
+      <c r="J28" s="95"/>
+      <c r="K28" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="95"/>
+      <c r="N28" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R28" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="88"/>
+      <c r="B29" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="58">
+        <v>92.78</v>
+      </c>
+      <c r="F29" s="59">
+        <v>1</v>
+      </c>
+      <c r="G29" s="98"/>
+      <c r="H29" s="59">
+        <v>1</v>
+      </c>
+      <c r="I29" s="58">
+        <f>E29*H29</f>
+        <v>92.78</v>
+      </c>
+      <c r="J29" s="95"/>
+      <c r="K29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" s="95"/>
+      <c r="N29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R29" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="58">
+        <v>10.83</v>
+      </c>
+      <c r="F31" s="59">
+        <v>1</v>
+      </c>
+      <c r="G31" s="98"/>
+      <c r="H31" s="59">
+        <v>1</v>
+      </c>
+      <c r="I31" s="58">
+        <f t="shared" ref="I31:I39" si="2">E31*H31</f>
+        <v>10.83</v>
+      </c>
+      <c r="J31" s="95"/>
+      <c r="K31" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="95"/>
+      <c r="N31" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O31" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R31" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="88"/>
+      <c r="B32" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="58">
+        <v>0.67</v>
+      </c>
+      <c r="F32" s="59">
+        <v>1</v>
+      </c>
+      <c r="G32" s="98"/>
+      <c r="H32" s="59">
+        <v>1</v>
+      </c>
+      <c r="I32" s="58">
+        <f t="shared" si="2"/>
+        <v>0.67</v>
+      </c>
+      <c r="J32" s="95"/>
+      <c r="K32" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" s="95"/>
+      <c r="N32" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O32" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R32" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="88"/>
+      <c r="B33" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="58">
+        <v>4.71</v>
+      </c>
+      <c r="F33" s="59">
+        <v>1</v>
+      </c>
+      <c r="G33" s="98"/>
+      <c r="H33" s="59">
+        <v>1</v>
+      </c>
+      <c r="I33" s="58">
+        <f t="shared" si="2"/>
+        <v>4.71</v>
+      </c>
+      <c r="J33" s="95"/>
+      <c r="K33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" s="95"/>
+      <c r="N33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R33" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="88"/>
+      <c r="B34" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="59">
+        <v>0</v>
+      </c>
+      <c r="G34" s="98"/>
+      <c r="H34" s="59">
+        <v>2</v>
+      </c>
+      <c r="I34" s="58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J34" s="95"/>
+      <c r="K34" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" s="95"/>
+      <c r="N34" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O34" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R34" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="88"/>
+      <c r="B35" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="58">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F35" s="59">
+        <v>2</v>
+      </c>
+      <c r="G35" s="98"/>
+      <c r="H35" s="59">
+        <v>2</v>
+      </c>
+      <c r="I35" s="58">
+        <f t="shared" si="2"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="J35" s="95"/>
+      <c r="K35" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="95"/>
+      <c r="N35" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R35" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="88"/>
+      <c r="B36" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="58">
+        <v>11.17</v>
+      </c>
+      <c r="F36" s="59">
+        <v>1</v>
+      </c>
+      <c r="G36" s="98"/>
+      <c r="H36" s="59">
+        <v>1</v>
+      </c>
+      <c r="I36" s="58">
+        <f t="shared" si="2"/>
+        <v>11.17</v>
+      </c>
+      <c r="J36" s="95"/>
+      <c r="K36" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" s="95"/>
+      <c r="N36" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R36" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="88"/>
+      <c r="B37" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="58">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F37" s="59">
+        <v>1</v>
+      </c>
+      <c r="G37" s="98"/>
+      <c r="H37" s="59">
+        <v>1</v>
+      </c>
+      <c r="I37" s="58">
+        <f t="shared" si="2"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J37" s="95"/>
+      <c r="K37" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" s="95"/>
+      <c r="N37" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O37" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R37" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="88"/>
+      <c r="B38" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="58">
+        <v>2.77</v>
+      </c>
+      <c r="F38" s="59">
+        <v>4</v>
+      </c>
+      <c r="G38" s="98"/>
+      <c r="H38" s="59">
+        <v>4</v>
+      </c>
+      <c r="I38" s="58">
+        <f t="shared" si="2"/>
+        <v>11.08</v>
+      </c>
+      <c r="J38" s="95"/>
+      <c r="K38" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" s="95"/>
+      <c r="N38" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O38" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R38" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="88"/>
+      <c r="B39" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="58">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F39" s="59">
+        <v>1</v>
+      </c>
+      <c r="G39" s="98"/>
+      <c r="H39" s="59">
+        <v>1</v>
+      </c>
+      <c r="I39" s="58">
+        <f t="shared" si="2"/>
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J39" s="95"/>
+      <c r="K39" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" s="95"/>
+      <c r="N39" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O39" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R39" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41"/>
+      <c r="E41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42"/>
+      <c r="E42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43"/>
+      <c r="E43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44"/>
+      <c r="E44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45"/>
+      <c r="E45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46"/>
+      <c r="E46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:18" ht="28.5">
+      <c r="A47" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="93"/>
+      <c r="E47" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" s="97"/>
+      <c r="H47" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" s="56">
+        <v>1235.68</v>
+      </c>
+      <c r="J47" s="94"/>
+      <c r="K47" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="L47" s="56">
+        <v>1256.92</v>
+      </c>
+      <c r="M47" s="94"/>
+      <c r="N47" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="O47" s="56">
+        <v>148.63</v>
+      </c>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="R47" s="56">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="58">
+        <v>5.97</v>
+      </c>
+      <c r="F48" s="66">
+        <v>1</v>
+      </c>
+      <c r="G48" s="98"/>
+      <c r="H48" s="66">
+        <v>1</v>
+      </c>
+      <c r="I48" s="58">
+        <f t="shared" ref="I48:I56" si="3">E48*H48</f>
+        <v>5.97</v>
+      </c>
+      <c r="J48" s="95"/>
+      <c r="K48" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L48" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" s="95"/>
+      <c r="N48" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O48" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R48" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="58">
+        <v>3.38</v>
+      </c>
+      <c r="F49" s="59">
+        <v>1</v>
+      </c>
+      <c r="G49" s="98"/>
+      <c r="H49" s="59">
+        <v>1</v>
+      </c>
+      <c r="I49" s="58">
+        <f t="shared" si="3"/>
+        <v>3.38</v>
+      </c>
+      <c r="J49" s="95"/>
+      <c r="K49" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L49" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M49" s="95"/>
+      <c r="N49" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O49" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R49" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="58">
+        <v>5.19</v>
+      </c>
+      <c r="F50" s="59">
+        <v>1</v>
+      </c>
+      <c r="G50" s="98"/>
+      <c r="H50" s="59">
+        <v>1</v>
+      </c>
+      <c r="I50" s="58">
+        <f t="shared" si="3"/>
+        <v>5.19</v>
+      </c>
+      <c r="J50" s="95"/>
+      <c r="K50" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M50" s="95"/>
+      <c r="N50" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O50" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R50" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="88"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="58">
+        <v>8.35</v>
+      </c>
+      <c r="F51" s="59">
+        <v>1</v>
+      </c>
+      <c r="G51" s="98"/>
+      <c r="H51" s="59">
+        <v>1</v>
+      </c>
+      <c r="I51" s="58">
+        <f t="shared" si="3"/>
+        <v>8.35</v>
+      </c>
+      <c r="J51" s="95"/>
+      <c r="K51" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L51" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" s="95"/>
+      <c r="N51" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O51" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R51" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="58">
+        <v>6.72</v>
+      </c>
+      <c r="F52" s="59">
+        <v>1</v>
+      </c>
+      <c r="G52" s="98"/>
+      <c r="H52" s="59">
+        <v>1</v>
+      </c>
+      <c r="I52" s="58">
+        <f t="shared" si="3"/>
+        <v>6.72</v>
+      </c>
+      <c r="J52" s="95"/>
+      <c r="K52" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L52" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M52" s="95"/>
+      <c r="N52" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O52" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R52" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="88"/>
+      <c r="B53" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="E53" s="58">
+        <v>5.05</v>
+      </c>
+      <c r="F53" s="59">
+        <v>1</v>
+      </c>
+      <c r="G53" s="98"/>
+      <c r="H53" s="59">
+        <v>1</v>
+      </c>
+      <c r="I53" s="58">
+        <f t="shared" si="3"/>
+        <v>5.05</v>
+      </c>
+      <c r="J53" s="95"/>
+      <c r="K53" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L53" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M53" s="95"/>
+      <c r="N53" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O53" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R53" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="88"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="58">
+        <v>7.44</v>
+      </c>
+      <c r="F54" s="59">
+        <v>1</v>
+      </c>
+      <c r="G54" s="98"/>
+      <c r="H54" s="59">
+        <v>1</v>
+      </c>
+      <c r="I54" s="58">
+        <f t="shared" si="3"/>
+        <v>7.44</v>
+      </c>
+      <c r="J54" s="95"/>
+      <c r="K54" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L54" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M54" s="95"/>
+      <c r="N54" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O54" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R54" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="88"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="58">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F55" s="59">
+        <v>1</v>
+      </c>
+      <c r="G55" s="98"/>
+      <c r="H55" s="59">
+        <v>1</v>
+      </c>
+      <c r="I55" s="58">
+        <f t="shared" si="3"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J55" s="95"/>
+      <c r="K55" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L55" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M55" s="95"/>
+      <c r="N55" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O55" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R55" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="88"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="58">
+        <v>9.41</v>
+      </c>
+      <c r="F56" s="66">
+        <v>0</v>
+      </c>
+      <c r="G56" s="98"/>
+      <c r="H56" s="66">
+        <v>1</v>
+      </c>
+      <c r="I56" s="58">
+        <f t="shared" si="3"/>
+        <v>9.41</v>
+      </c>
+      <c r="J56" s="95"/>
+      <c r="K56" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L56" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" s="95"/>
+      <c r="N56" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O56" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R56" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="88"/>
+      <c r="B57" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="58">
+        <v>2.65</v>
+      </c>
+      <c r="F57" s="66">
+        <v>24</v>
+      </c>
+      <c r="G57" s="98"/>
+      <c r="H57" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I57" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" s="95"/>
+      <c r="K57" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L57" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" s="95"/>
+      <c r="N57" s="62">
+        <v>24</v>
+      </c>
+      <c r="O57" s="58">
+        <f>E57*N57</f>
+        <v>63.599999999999994</v>
+      </c>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R57" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="58">
+        <v>2.91</v>
+      </c>
+      <c r="F58" s="59">
+        <v>1</v>
+      </c>
+      <c r="G58" s="98"/>
+      <c r="H58" s="59">
+        <v>1</v>
+      </c>
+      <c r="I58" s="58">
+        <f>E58*H58</f>
+        <v>2.91</v>
+      </c>
+      <c r="J58" s="95"/>
+      <c r="K58" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L58" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" s="95"/>
+      <c r="N58" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O58" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R58" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="88"/>
+      <c r="B59" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="58">
+        <v>7.24</v>
+      </c>
+      <c r="F59" s="59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="98"/>
+      <c r="H59" s="59">
+        <v>1</v>
+      </c>
+      <c r="I59" s="58">
+        <f>E59*H59</f>
+        <v>7.24</v>
+      </c>
+      <c r="J59" s="95"/>
+      <c r="K59" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L59" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M59" s="95"/>
+      <c r="N59" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O59" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R59" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="88"/>
+      <c r="B60" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="58">
+        <v>6.51</v>
+      </c>
+      <c r="F60" s="59">
+        <v>1</v>
+      </c>
+      <c r="G60" s="98"/>
+      <c r="H60" s="59">
+        <v>1</v>
+      </c>
+      <c r="I60" s="58">
+        <f>E60*H60</f>
+        <v>6.51</v>
+      </c>
+      <c r="J60" s="95"/>
+      <c r="K60" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L60" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" s="95"/>
+      <c r="N60" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O60" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R60" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="88"/>
+      <c r="B61" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="58">
+        <v>8.73</v>
+      </c>
+      <c r="F61" s="66">
+        <v>1</v>
+      </c>
+      <c r="G61" s="98"/>
+      <c r="H61" s="66">
+        <v>1</v>
+      </c>
+      <c r="I61" s="58">
+        <f>E61*H61</f>
+        <v>8.73</v>
+      </c>
+      <c r="J61" s="95"/>
+      <c r="K61" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L61" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M61" s="95"/>
+      <c r="N61" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O61" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R61" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="58">
+        <v>95.82</v>
+      </c>
+      <c r="F63" s="66">
+        <v>4</v>
+      </c>
+      <c r="G63" s="98"/>
+      <c r="H63" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I63" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" s="95"/>
+      <c r="K63" s="66">
+        <v>2</v>
+      </c>
+      <c r="L63" s="58">
+        <f>E63*K63</f>
+        <v>191.64</v>
+      </c>
+      <c r="M63" s="95"/>
+      <c r="N63" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O63" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R63" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="88"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="58">
+        <v>57.48</v>
+      </c>
+      <c r="F64" s="66">
+        <v>4</v>
+      </c>
+      <c r="G64" s="98"/>
+      <c r="H64" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I64" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" s="95"/>
+      <c r="K64" s="66">
+        <v>0</v>
+      </c>
+      <c r="L64" s="58">
+        <f>E64*K64</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="95"/>
+      <c r="N64" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O64" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P64" s="95"/>
+      <c r="Q64" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R64" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="88"/>
+      <c r="B65" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="58">
+        <v>25.19</v>
+      </c>
+      <c r="F65" s="59">
+        <v>16</v>
+      </c>
+      <c r="G65" s="98"/>
+      <c r="H65" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I65" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J65" s="95"/>
+      <c r="K65" s="59">
+        <v>8</v>
+      </c>
+      <c r="L65" s="58">
+        <f>E65*K65</f>
+        <v>201.52</v>
+      </c>
+      <c r="M65" s="95"/>
+      <c r="N65" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O65" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R65" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="58">
+        <v>68.2</v>
+      </c>
+      <c r="F67" s="59">
+        <v>12</v>
+      </c>
+      <c r="G67" s="98"/>
+      <c r="H67" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J67" s="95"/>
+      <c r="K67" s="59">
+        <v>4</v>
+      </c>
+      <c r="L67" s="58">
+        <f t="shared" ref="L67:L73" si="4">E67*K67</f>
+        <v>272.8</v>
+      </c>
+      <c r="M67" s="95"/>
+      <c r="N67" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O67" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R67" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="T67" s="13"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="88"/>
+      <c r="B68" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="59"/>
+      <c r="E68" s="58">
+        <v>68.64</v>
+      </c>
+      <c r="F68" s="59">
+        <v>4</v>
+      </c>
+      <c r="G68" s="98"/>
+      <c r="H68" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I68" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J68" s="95"/>
+      <c r="K68" s="59">
+        <v>0</v>
+      </c>
+      <c r="L68" s="58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="95"/>
+      <c r="N68" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O68" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P68" s="95"/>
+      <c r="Q68" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R68" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="88"/>
+      <c r="B69" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="58">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="F69" s="59">
+        <v>4</v>
+      </c>
+      <c r="G69" s="98"/>
+      <c r="H69" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I69" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J69" s="95"/>
+      <c r="K69" s="59">
+        <v>4</v>
+      </c>
+      <c r="L69" s="58">
+        <f t="shared" si="4"/>
+        <v>146.36000000000001</v>
+      </c>
+      <c r="M69" s="95"/>
+      <c r="N69" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O69" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R69" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" s="88"/>
+      <c r="B70" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="92"/>
+      <c r="D70" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="58">
+        <v>36.81</v>
+      </c>
+      <c r="F70" s="59">
+        <v>4</v>
+      </c>
+      <c r="G70" s="98"/>
+      <c r="H70" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I70" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J70" s="95"/>
+      <c r="K70" s="59">
+        <v>4</v>
+      </c>
+      <c r="L70" s="58">
+        <f t="shared" si="4"/>
+        <v>147.24</v>
+      </c>
+      <c r="M70" s="95"/>
+      <c r="N70" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O70" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P70" s="95"/>
+      <c r="Q70" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R70" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" s="88"/>
+      <c r="B71" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="92"/>
+      <c r="D71" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="58">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="F71" s="59">
+        <v>8</v>
+      </c>
+      <c r="G71" s="98"/>
+      <c r="H71" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I71" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J71" s="95"/>
+      <c r="K71" s="59">
+        <v>4</v>
+      </c>
+      <c r="L71" s="58">
+        <f t="shared" si="4"/>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="M71" s="95"/>
+      <c r="N71" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O71" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P71" s="95"/>
+      <c r="Q71" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R71" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" s="88"/>
+      <c r="B72" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="58">
+        <v>9.08</v>
+      </c>
+      <c r="F72" s="59">
+        <v>0</v>
+      </c>
+      <c r="G72" s="98"/>
+      <c r="H72" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I72" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J72" s="95"/>
+      <c r="K72" s="59">
+        <v>8</v>
+      </c>
+      <c r="L72" s="58">
+        <f t="shared" si="4"/>
+        <v>72.64</v>
+      </c>
+      <c r="M72" s="95"/>
+      <c r="N72" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O72" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R72" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" s="88"/>
+      <c r="B73" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="58">
+        <v>11.59</v>
+      </c>
+      <c r="F73" s="59">
+        <v>1</v>
+      </c>
+      <c r="G73" s="98"/>
+      <c r="H73" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I73" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J73" s="95"/>
+      <c r="K73" s="59">
+        <v>1</v>
+      </c>
+      <c r="L73" s="58">
+        <f t="shared" si="4"/>
+        <v>11.59</v>
+      </c>
+      <c r="M73" s="95"/>
+      <c r="N73" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O73" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R73" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="95"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" s="90"/>
+      <c r="B75" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="59"/>
+      <c r="E75" s="58">
+        <v>55.76</v>
+      </c>
+      <c r="F75" s="66">
+        <v>1</v>
+      </c>
+      <c r="G75" s="98"/>
+      <c r="H75" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I75" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J75" s="95"/>
+      <c r="K75" s="66">
+        <v>1</v>
+      </c>
+      <c r="L75" s="58">
+        <f>E75*K75</f>
+        <v>55.76</v>
+      </c>
+      <c r="M75" s="95"/>
+      <c r="N75" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O75" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R75" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" s="90"/>
+      <c r="B76" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="59"/>
+      <c r="E76" s="58">
+        <v>5.37</v>
+      </c>
+      <c r="F76" s="66">
+        <v>1</v>
+      </c>
+      <c r="G76" s="98"/>
+      <c r="H76" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J76" s="95"/>
+      <c r="K76" s="66">
+        <v>1</v>
+      </c>
+      <c r="L76" s="68">
+        <f>E76*K76</f>
+        <v>5.37</v>
+      </c>
+      <c r="M76" s="95"/>
+      <c r="N76" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="O76" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P76" s="95"/>
+      <c r="Q76" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R76" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" s="90"/>
+      <c r="B77" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="59"/>
+      <c r="E77" s="58">
+        <v>9.43</v>
+      </c>
+      <c r="F77" s="66">
+        <v>1</v>
+      </c>
+      <c r="G77" s="98"/>
+      <c r="H77" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I77" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J77" s="95"/>
+      <c r="K77" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L77" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M77" s="95"/>
+      <c r="N77" s="62">
+        <v>1</v>
+      </c>
+      <c r="O77" s="58">
+        <f>E77*N77</f>
+        <v>9.43</v>
+      </c>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="R77" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="96"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="P1:P40"/>
+    <mergeCell ref="J1:J40"/>
+    <mergeCell ref="G1:G40"/>
+    <mergeCell ref="M1:M40"/>
+    <mergeCell ref="P47:P78"/>
+    <mergeCell ref="G47:G78"/>
+    <mergeCell ref="J47:J78"/>
+    <mergeCell ref="M47:M78"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B64"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H75:I77 H27:I29 H20:I25 H2:I12 H67:I73 H63:I65 H48:I61 H31:I39 H14:I18 K14:L18 K31:L39 K48:L61 K63:L65 K67:L73 K2:L12 K20:L25 K27:L29 K75:L77 N75:O77 N27:O29 N20:O25 N2:O12 N67:O73 N63:O65 N48:O61 N31:O39 N14:O18 Q14:R18 Q31:R39 Q48:R61 Q63:R65 Q67:R73 Q2:R12 Q20:R25 Q27:R29 Q75:R77 B14:F18 B31:F39 B48:F61 B63:F65 B67:F73 B2:F12 B20:F25 B27:F29 B75:F77">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L78"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.06640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.796875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" style="29"/>
+    <col min="12" max="12" width="10.1328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="28.5">
+      <c r="A1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="38">
+        <v>12.31</v>
+      </c>
+      <c r="I2" s="39">
+        <v>4</v>
+      </c>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="42.75">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="38">
+        <v>10.57</v>
+      </c>
+      <c r="I3" s="39">
+        <v>10</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="38">
+        <v>7.79</v>
+      </c>
+      <c r="I4" s="39">
+        <v>5</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="38">
+        <v>5.84</v>
+      </c>
+      <c r="I5" s="42">
+        <v>2</v>
+      </c>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="88"/>
+      <c r="B6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="38">
+        <v>4.96</v>
+      </c>
+      <c r="I6" s="39">
+        <v>38</v>
+      </c>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="88"/>
+      <c r="B7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="38">
+        <v>7.62</v>
+      </c>
+      <c r="I7" s="39">
+        <v>8</v>
+      </c>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="88"/>
+      <c r="B8" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="38">
+        <v>7.95</v>
+      </c>
+      <c r="I8" s="39">
+        <v>10</v>
+      </c>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="88"/>
+      <c r="B9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="38">
+        <v>9.86</v>
+      </c>
+      <c r="I9" s="39">
+        <v>8</v>
+      </c>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="88"/>
+      <c r="B10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I10" s="39">
+        <v>10</v>
+      </c>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="88"/>
+      <c r="B11" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="38">
+        <v>4.29</v>
+      </c>
+      <c r="I11" s="39">
+        <v>10</v>
+      </c>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="88"/>
+      <c r="B12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="38">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I12" s="39">
+        <v>3</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="32"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="49"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="38">
+        <v>13.6</v>
+      </c>
+      <c r="I14" s="39">
+        <v>8</v>
+      </c>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="88"/>
+      <c r="B15" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="38">
+        <v>8.39</v>
+      </c>
+      <c r="I15" s="39">
+        <v>4</v>
+      </c>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="88"/>
+      <c r="B16" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="38">
+        <v>10.46</v>
+      </c>
+      <c r="I16" s="39">
+        <v>2</v>
+      </c>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="88"/>
+      <c r="B17" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="38">
+        <v>13.07</v>
+      </c>
+      <c r="I17" s="39">
+        <v>3</v>
+      </c>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="88"/>
+      <c r="B18" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="38">
+        <v>2.96</v>
+      </c>
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="38">
+        <v>9.14</v>
+      </c>
+      <c r="I20" s="39">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="1:10" ht="14" customHeight="1">
+      <c r="A21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="38">
+        <v>4.34</v>
+      </c>
+      <c r="I21" s="39">
+        <v>2</v>
+      </c>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="88"/>
+      <c r="B22" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="38">
+        <v>7.17</v>
+      </c>
+      <c r="I22" s="39">
+        <v>4</v>
+      </c>
+      <c r="J22" s="40"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="88"/>
+      <c r="B23" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="38">
+        <v>1.66</v>
+      </c>
+      <c r="I23" s="39">
+        <v>10</v>
+      </c>
+      <c r="J23" s="40"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="88"/>
+      <c r="B24" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="38">
+        <v>2.08</v>
+      </c>
+      <c r="I24" s="39">
+        <v>10</v>
+      </c>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="88"/>
+      <c r="B25" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="38">
+        <v>3.78</v>
+      </c>
+      <c r="I25" s="39">
+        <v>10</v>
+      </c>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="38">
+        <v>2.31</v>
+      </c>
+      <c r="I27" s="39">
+        <v>5</v>
+      </c>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="38">
+        <v>2.31</v>
+      </c>
+      <c r="I28" s="39">
+        <v>5</v>
+      </c>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="88"/>
+      <c r="B29" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="38">
+        <v>92.78</v>
+      </c>
+      <c r="I29" s="39">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="38">
+        <v>10.83</v>
+      </c>
+      <c r="I31" s="39">
+        <v>1</v>
+      </c>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="88"/>
+      <c r="B32" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="I32" s="39">
+        <v>1</v>
+      </c>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="88"/>
+      <c r="B33" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="38">
+        <v>4.71</v>
+      </c>
+      <c r="I33" s="39">
+        <v>1</v>
+      </c>
+      <c r="J33" s="40"/>
+    </row>
+    <row r="34" spans="1:10" ht="28.5">
+      <c r="A34" s="88"/>
+      <c r="B34" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="I34" s="39">
+        <v>0</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="88"/>
+      <c r="B35" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="38">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I35" s="39">
+        <v>2</v>
+      </c>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="88"/>
+      <c r="B36" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="38">
+        <v>11.17</v>
+      </c>
+      <c r="I36" s="39">
+        <v>1</v>
+      </c>
+      <c r="J36" s="40"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="88"/>
+      <c r="B37" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="38">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I37" s="39">
+        <v>1</v>
+      </c>
+      <c r="J37" s="40"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="88"/>
+      <c r="B38" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="38">
+        <v>2.77</v>
+      </c>
+      <c r="I38" s="39">
+        <v>4</v>
+      </c>
+      <c r="J38" s="40"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="88"/>
+      <c r="B39" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="38">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I39" s="39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:10" ht="28.5">
+      <c r="A47" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="38">
+        <v>5.97</v>
+      </c>
+      <c r="I48" s="51">
+        <v>1</v>
+      </c>
+      <c r="J48" s="50"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="38">
+        <v>3.38</v>
+      </c>
+      <c r="I49" s="39">
+        <v>1</v>
+      </c>
+      <c r="J49" s="40"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="38">
+        <v>5.19</v>
+      </c>
+      <c r="I50" s="39">
+        <v>1</v>
+      </c>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="88"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" s="38">
+        <v>8.35</v>
+      </c>
+      <c r="I51" s="39">
+        <v>1</v>
+      </c>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" s="38">
+        <v>6.72</v>
+      </c>
+      <c r="I52" s="39">
+        <v>1</v>
+      </c>
+      <c r="J52" s="40"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="88"/>
+      <c r="B53" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="38">
+        <v>5.05</v>
+      </c>
+      <c r="I53" s="39">
+        <v>1</v>
+      </c>
+      <c r="J53" s="40"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="88"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" s="38">
+        <v>7.44</v>
+      </c>
+      <c r="I54" s="39">
+        <v>1</v>
+      </c>
+      <c r="J54" s="40"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="88"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="38">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I55" s="39">
+        <v>1</v>
+      </c>
+      <c r="J55" s="40"/>
+    </row>
+    <row r="56" spans="1:10" ht="28.5">
+      <c r="A56" s="88"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="38">
+        <v>9.41</v>
+      </c>
+      <c r="I56" s="51">
+        <v>0</v>
+      </c>
+      <c r="J56" s="50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="88"/>
+      <c r="B57" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="38">
+        <v>2.65</v>
+      </c>
+      <c r="I57" s="51">
+        <v>24</v>
+      </c>
+      <c r="J57" s="50"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H58" s="38">
+        <v>2.91</v>
+      </c>
+      <c r="I58" s="39">
+        <v>1</v>
+      </c>
+      <c r="J58" s="40"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="88"/>
+      <c r="B59" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="38">
+        <v>7.24</v>
+      </c>
+      <c r="I59" s="39">
+        <v>1</v>
+      </c>
+      <c r="J59" s="40"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="88"/>
+      <c r="B60" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="38">
+        <v>6.51</v>
+      </c>
+      <c r="I60" s="39">
+        <v>1</v>
+      </c>
+      <c r="J60" s="40"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="88"/>
+      <c r="B61" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61" s="38">
+        <v>8.73</v>
+      </c>
+      <c r="I61" s="51">
+        <v>1</v>
+      </c>
+      <c r="J61" s="50"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" ht="28.5">
+      <c r="A63" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="39"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="38">
+        <v>95.82</v>
+      </c>
+      <c r="I63" s="51">
+        <v>4</v>
+      </c>
+      <c r="J63" s="50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="28.5">
+      <c r="A64" s="88"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="38">
+        <v>57.48</v>
+      </c>
+      <c r="I64" s="51">
+        <v>4</v>
+      </c>
+      <c r="J64" s="50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="28.5">
+      <c r="A65" s="88"/>
+      <c r="B65" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="38">
+        <v>25.19</v>
+      </c>
+      <c r="I65" s="39">
+        <v>16</v>
+      </c>
+      <c r="J65" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="1:12" ht="28.5">
+      <c r="A67" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G67" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="38">
+        <v>68.2</v>
+      </c>
+      <c r="I67" s="39">
+        <v>12</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="L67" s="28"/>
+    </row>
+    <row r="68" spans="1:12" ht="28.5">
+      <c r="A68" s="88"/>
+      <c r="B68" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="38">
+        <v>68.64</v>
+      </c>
+      <c r="I68" s="39">
+        <v>4</v>
+      </c>
+      <c r="J68" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="88"/>
+      <c r="B69" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="37"/>
+      <c r="G69" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="38">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="I69" s="39">
+        <v>4</v>
+      </c>
+      <c r="J69" s="40"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="88"/>
+      <c r="B70" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="92"/>
+      <c r="D70" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="37"/>
+      <c r="G70" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="38">
+        <v>36.81</v>
+      </c>
+      <c r="I70" s="39">
+        <v>4</v>
+      </c>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="1:12" ht="28.5">
+      <c r="A71" s="88"/>
+      <c r="B71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="92"/>
+      <c r="D71" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="37"/>
+      <c r="G71" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="38">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="I71" s="39">
+        <v>8</v>
+      </c>
+      <c r="J71" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="28.5">
+      <c r="A72" s="88"/>
+      <c r="B72" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="38">
+        <v>9.08</v>
+      </c>
+      <c r="I72" s="39">
+        <v>0</v>
+      </c>
+      <c r="J72" s="50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="88"/>
+      <c r="B73" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="38">
+        <v>11.59</v>
+      </c>
+      <c r="I73" s="39">
+        <v>1</v>
+      </c>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="35"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="90"/>
+      <c r="B75" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="H75" s="38">
+        <v>55.76</v>
+      </c>
+      <c r="I75" s="51">
+        <v>1</v>
+      </c>
+      <c r="J75" s="50"/>
+    </row>
+    <row r="76" spans="1:12" ht="28.5">
+      <c r="A76" s="90"/>
+      <c r="B76" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="H76" s="38">
+        <v>5.37</v>
+      </c>
+      <c r="I76" s="51">
+        <v>1</v>
+      </c>
+      <c r="J76" s="50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="90"/>
+      <c r="B77" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H77" s="38">
+        <v>9.43</v>
+      </c>
+      <c r="I77" s="51">
+        <v>1</v>
+      </c>
+      <c r="J77" s="50"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B14:J18 B31:J39 B48:J61 B63:J65 B67:J73 B2:J12 B20:J25 B27:J29 B75:J77">
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G65" r:id="rId1" location="61815k36/=1cag4oi"/>
+    <hyperlink ref="G67" r:id="rId2" location="9338t54/=1cag46d"/>
+    <hyperlink ref="G63" r:id="rId3" location="6459k62/=1cagjsi"/>
+    <hyperlink ref="G22" r:id="rId4" location="7193k3/=1cazszw"/>
+    <hyperlink ref="G68" r:id="rId5" location="2464k34/=1cbgsmi"/>
+    <hyperlink ref="G69" r:id="rId6" location="98980a132/=1cbizut"/>
+    <hyperlink ref="G71" r:id="rId7" location="6698k13/=1cbj08y"/>
+    <hyperlink ref="G70" r:id="rId8" location="1343k134/=1cbj0f6"/>
+    <hyperlink ref="G14" r:id="rId9" location="2313n46/=1cby7fm"/>
+    <hyperlink ref="G12" r:id="rId10" location="47065t93/=1cbr627"/>
+    <hyperlink ref="G10" r:id="rId11" location="47065t142/=1cbr7ot"/>
+    <hyperlink ref="G11" r:id="rId12" location="47065t147/=1cbr7xq"/>
+    <hyperlink ref="G2" r:id="rId13" location="47065t101/=1cbr8ec"/>
+    <hyperlink ref="G6" r:id="rId14" location="47065t216/=1cbr8mf"/>
+    <hyperlink ref="G9" r:id="rId15" location="47065t244/=1cbra50"/>
+    <hyperlink ref="G72" r:id="rId16" location="60355k704/=1cbrell"/>
+    <hyperlink ref="G73" r:id="rId17" location="91182a703/=1cbrlk2"/>
+    <hyperlink ref="G23" r:id="rId18" location="90268a203/=1ccj61x"/>
+    <hyperlink ref="G28" r:id="rId19" location="1910a22/=1ct0aul"/>
+    <hyperlink ref="G27" r:id="rId20" location="1910a42/=1ct0b2b"/>
+    <hyperlink ref="G25" r:id="rId21" location="9634t603/=1ct11kf"/>
+    <hyperlink ref="G7" r:id="rId22" location="47065t267/=1ct8pah"/>
+    <hyperlink ref="G8" r:id="rId23" location="47065t278/=1ct8qy1"/>
+    <hyperlink ref="G21" r:id="rId24" location="7343k184/=1ct8uci"/>
+    <hyperlink ref="G20" r:id="rId25" location="7343k29/=1ct8u34"/>
+    <hyperlink ref="G31" r:id="rId26" location="9293k12/=1ctcaxk"/>
+    <hyperlink ref="G33" r:id="rId27" location="6391k413/=1ctcfzf"/>
+    <hyperlink ref="G35" r:id="rId28" location="6338k424/=1ctsg38"/>
+    <hyperlink ref="G36" r:id="rId29" location="2489k24/=1ctsnot"/>
+    <hyperlink ref="G34" r:id="rId30" location="6391k521/=1ctsrf0"/>
+    <hyperlink ref="G39" r:id="rId31" location="6546k54/=1cts37f"/>
+    <hyperlink ref="G38" r:id="rId32" location="9946k15/=1ctt7z4"/>
+    <hyperlink ref="G15" r:id="rId33" location="2313n43/=1cttttv"/>
+    <hyperlink ref="G16" r:id="rId34" location="89015k231/=1ctty5m"/>
+    <hyperlink ref="G17" r:id="rId35" location="89015k239/=1ctu0cb"/>
+    <hyperlink ref="G29" r:id="rId36" location="92985t52/=1ct8ij0"/>
+    <hyperlink ref="G24" r:id="rId37" location="9634t203/=1ctvn73"/>
+    <hyperlink ref="G58" r:id="rId38" location="91841a005/=1ctzaex"/>
+    <hyperlink ref="G52" r:id="rId39" location="97763a267/=1ctze0m"/>
+    <hyperlink ref="G56" r:id="rId40" location="91292a139/=1ctzfq8"/>
+    <hyperlink ref="G53" r:id="rId41" location="90044a167/=1ctzj8m"/>
+    <hyperlink ref="G60" r:id="rId42" location="97149a250/=1ctzjtn"/>
+    <hyperlink ref="G59" r:id="rId43" location="97149a100/=1ctzgtl"/>
+    <hyperlink ref="G51" r:id="rId44" location="97763a263/=1ctznzk"/>
+    <hyperlink ref="G55" r:id="rId45" location="91292a137/=1ctzorm"/>
+    <hyperlink ref="G48" r:id="rId46" location="92196a077/=1cu00p8"/>
+    <hyperlink ref="G49" r:id="rId47" location="92949a110/=1ctzdks"/>
+    <hyperlink ref="G50" r:id="rId48" location="92949a813/=1ctzdgv"/>
+    <hyperlink ref="G54" r:id="rId49" location="91292a134/=1ctzrd6"/>
+    <hyperlink ref="G61" r:id="rId50" location="91828a251/=1cu0gf7"/>
+    <hyperlink ref="G32" r:id="rId51" location="6391k136/=1cucsi1"/>
+    <hyperlink ref="G75" r:id="rId52" location="8589k84/=1cy43x1"/>
+    <hyperlink ref="G76" r:id="rId53" location="8560k275/=1cyln3f"/>
+    <hyperlink ref="G18" r:id="rId54" location="1610t12/=1d2s65q"/>
+    <hyperlink ref="G57" r:id="rId55" location="94567a510/=1d2s6uf"/>
+    <hyperlink ref="G37" r:id="rId56" location="7398k6/=1cuchny"/>
+    <hyperlink ref="G64" r:id="rId57" location="6459k59/=1cagjxv"/>
+    <hyperlink ref="G77" r:id="rId58" location="8573k121/=1d2s6lb"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId59"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>